--- a/Code/ProjectStrategicLeadershipPlugin/数据库结构.xlsx
+++ b/Code/ProjectStrategicLeadershipPlugin/数据库结构.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="141">
   <si>
     <t>表中文名</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -170,10 +170,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Index</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>ProjectID</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -218,10 +214,6 @@
   </si>
   <si>
     <t>VersionNum</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -930,10 +922,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G94"/>
+  <dimension ref="A1:G93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="D79" sqref="D79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -996,13 +988,13 @@
         <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F3" s="1"/>
     </row>
@@ -1014,13 +1006,13 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F4" s="1"/>
     </row>
@@ -1032,13 +1024,13 @@
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F5" s="1"/>
     </row>
@@ -1050,13 +1042,13 @@
         <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F6" s="1"/>
     </row>
@@ -1068,13 +1060,13 @@
         <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F7" s="1"/>
     </row>
@@ -1086,13 +1078,13 @@
         <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F8" s="1"/>
     </row>
@@ -1104,13 +1096,13 @@
         <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F9" s="1"/>
     </row>
@@ -1122,13 +1114,13 @@
         <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D10" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F10" s="1"/>
     </row>
@@ -1140,13 +1132,13 @@
         <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F11" s="1"/>
     </row>
@@ -1158,13 +1150,13 @@
         <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F12" s="1"/>
     </row>
@@ -1176,10 +1168,10 @@
         <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D13" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E13" t="s">
         <v>27</v>
@@ -1194,13 +1186,13 @@
         <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D14" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E14" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F14" s="1"/>
     </row>
@@ -1212,13 +1204,13 @@
         <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D15" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F15" s="1"/>
     </row>
@@ -1248,13 +1240,13 @@
         <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D19" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E19" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F19" s="1"/>
     </row>
@@ -1266,13 +1258,13 @@
         <v>17</v>
       </c>
       <c r="C20" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D20" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F20" s="1"/>
     </row>
@@ -1284,10 +1276,10 @@
         <v>17</v>
       </c>
       <c r="C21" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D21" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E21" t="s">
         <v>27</v>
@@ -1302,13 +1294,13 @@
         <v>17</v>
       </c>
       <c r="C22" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D22" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E22" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F22" s="1"/>
     </row>
@@ -1320,13 +1312,13 @@
         <v>17</v>
       </c>
       <c r="C23" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D23" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E23" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F23" s="1"/>
     </row>
@@ -1338,13 +1330,13 @@
         <v>17</v>
       </c>
       <c r="C24" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D24" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E24" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F24" s="1"/>
     </row>
@@ -1356,13 +1348,13 @@
         <v>17</v>
       </c>
       <c r="C25" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D25" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E25" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F25" s="1"/>
     </row>
@@ -1374,13 +1366,13 @@
         <v>17</v>
       </c>
       <c r="C26" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D26" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E26" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F26" s="1"/>
     </row>
@@ -1410,10 +1402,10 @@
         <v>12</v>
       </c>
       <c r="C30" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E30" t="s">
         <v>9</v>
@@ -1428,10 +1420,10 @@
         <v>12</v>
       </c>
       <c r="C31" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D31" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E31" t="s">
         <v>27</v>
@@ -1446,13 +1438,13 @@
         <v>12</v>
       </c>
       <c r="C32" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D32" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F32" s="1"/>
     </row>
@@ -1464,13 +1456,13 @@
         <v>12</v>
       </c>
       <c r="C33" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D33" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E33" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F33" s="1"/>
     </row>
@@ -1482,13 +1474,13 @@
         <v>12</v>
       </c>
       <c r="C34" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D34" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E34" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F34" s="1"/>
     </row>
@@ -1500,13 +1492,13 @@
         <v>12</v>
       </c>
       <c r="C35" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D35" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E35" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F35" s="1"/>
     </row>
@@ -1518,13 +1510,13 @@
         <v>12</v>
       </c>
       <c r="C36" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D36" t="s">
+        <v>94</v>
+      </c>
+      <c r="E36" t="s">
         <v>96</v>
-      </c>
-      <c r="E36" t="s">
-        <v>98</v>
       </c>
       <c r="F36" s="1"/>
     </row>
@@ -1536,10 +1528,10 @@
         <v>12</v>
       </c>
       <c r="C37" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D37" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E37" t="s">
         <v>27</v>
@@ -1571,10 +1563,10 @@
         <v>18</v>
       </c>
       <c r="C41" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E41" t="s">
         <v>9</v>
@@ -1589,10 +1581,10 @@
         <v>18</v>
       </c>
       <c r="C42" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D42" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E42" t="s">
         <v>9</v>
@@ -1607,10 +1599,10 @@
         <v>18</v>
       </c>
       <c r="C43" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D43" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E43" t="s">
         <v>27</v>
@@ -1625,13 +1617,13 @@
         <v>18</v>
       </c>
       <c r="C44" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D44" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E44" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F44" s="1"/>
     </row>
@@ -1643,13 +1635,13 @@
         <v>18</v>
       </c>
       <c r="C45" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D45" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E45" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F45" s="1"/>
     </row>
@@ -1661,13 +1653,13 @@
         <v>18</v>
       </c>
       <c r="C46" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D46" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E46" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F46" s="1"/>
     </row>
@@ -1679,13 +1671,13 @@
         <v>18</v>
       </c>
       <c r="C47" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D47" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E47" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F47" s="1"/>
     </row>
@@ -1697,13 +1689,13 @@
         <v>18</v>
       </c>
       <c r="C48" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D48" t="s">
+        <v>94</v>
+      </c>
+      <c r="E48" t="s">
         <v>96</v>
-      </c>
-      <c r="E48" t="s">
-        <v>98</v>
       </c>
       <c r="F48" s="1"/>
     </row>
@@ -1715,10 +1707,10 @@
         <v>18</v>
       </c>
       <c r="C49" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D49" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E49" t="s">
         <v>27</v>
@@ -1750,10 +1742,10 @@
         <v>19</v>
       </c>
       <c r="C53" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D53" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E53" t="s">
         <v>9</v>
@@ -1768,13 +1760,13 @@
         <v>19</v>
       </c>
       <c r="C54" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D54" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E54" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F54" s="1"/>
     </row>
@@ -1786,13 +1778,13 @@
         <v>19</v>
       </c>
       <c r="C55" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D55" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E55" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F55" s="1"/>
     </row>
@@ -1804,13 +1796,13 @@
         <v>19</v>
       </c>
       <c r="C56" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D56" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F56" s="1"/>
     </row>
@@ -1822,13 +1814,13 @@
         <v>19</v>
       </c>
       <c r="C57" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D57" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F57" s="1"/>
     </row>
@@ -1840,10 +1832,10 @@
         <v>19</v>
       </c>
       <c r="C58" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D58" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E58" t="s">
         <v>9</v>
@@ -1858,13 +1850,13 @@
         <v>19</v>
       </c>
       <c r="C59" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D59" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F59" s="1"/>
     </row>
@@ -1876,13 +1868,13 @@
         <v>19</v>
       </c>
       <c r="C60" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D60" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F60" s="1"/>
     </row>
@@ -1894,13 +1886,13 @@
         <v>19</v>
       </c>
       <c r="C61" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D61" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F61" s="1"/>
     </row>
@@ -1912,13 +1904,13 @@
         <v>19</v>
       </c>
       <c r="C62" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D62" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F62" s="1"/>
     </row>
@@ -1930,13 +1922,13 @@
         <v>19</v>
       </c>
       <c r="C63" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D63" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F63" s="1"/>
     </row>
@@ -1948,13 +1940,13 @@
         <v>19</v>
       </c>
       <c r="C64" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D64" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F64" s="1"/>
     </row>
@@ -1966,13 +1958,13 @@
         <v>19</v>
       </c>
       <c r="C65" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D65" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F65" s="1"/>
     </row>
@@ -1984,13 +1976,13 @@
         <v>19</v>
       </c>
       <c r="C66" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D66" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F66" s="1"/>
     </row>
@@ -2002,13 +1994,13 @@
         <v>19</v>
       </c>
       <c r="C67" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D67" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F67" s="1"/>
     </row>
@@ -2020,13 +2012,13 @@
         <v>19</v>
       </c>
       <c r="C68" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D68" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F68" s="1"/>
     </row>
@@ -2038,13 +2030,13 @@
         <v>19</v>
       </c>
       <c r="C69" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D69" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F69" s="1"/>
     </row>
@@ -2056,10 +2048,10 @@
         <v>19</v>
       </c>
       <c r="C70" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D70" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E70" t="s">
         <v>9</v>
@@ -2074,10 +2066,10 @@
         <v>19</v>
       </c>
       <c r="C71" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D71" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E71" t="s">
         <v>9</v>
@@ -2092,13 +2084,13 @@
         <v>19</v>
       </c>
       <c r="C72" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D72" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F72" s="1"/>
     </row>
@@ -2134,13 +2126,13 @@
         <v>20</v>
       </c>
       <c r="C76" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D76" t="s">
         <v>39</v>
       </c>
       <c r="E76" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="F76" s="1"/>
     </row>
@@ -2152,13 +2144,13 @@
         <v>20</v>
       </c>
       <c r="C77" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D77" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E77" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="F77" s="1"/>
     </row>
@@ -2170,7 +2162,7 @@
         <v>20</v>
       </c>
       <c r="C78" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D78" t="s">
         <v>42</v>
@@ -2180,23 +2172,23 @@
       </c>
       <c r="F78" s="1"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A79" t="s">
-        <v>15</v>
-      </c>
-      <c r="B79" t="s">
-        <v>20</v>
-      </c>
-      <c r="C79" t="s">
-        <v>55</v>
-      </c>
-      <c r="D79" t="s">
-        <v>43</v>
-      </c>
-      <c r="E79" t="s">
-        <v>34</v>
-      </c>
-      <c r="F79" s="1"/>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A81" t="s">
+        <v>21</v>
+      </c>
+      <c r="B81" t="s">
+        <v>22</v>
+      </c>
+      <c r="C81" t="s">
+        <v>8</v>
+      </c>
+      <c r="D81" t="s">
+        <v>8</v>
+      </c>
+      <c r="E81" t="s">
+        <v>9</v>
+      </c>
+      <c r="F81" s="1"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
@@ -2206,10 +2198,10 @@
         <v>22</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="D82" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="E82" t="s">
         <v>9</v>
@@ -2224,13 +2216,13 @@
         <v>22</v>
       </c>
       <c r="C83" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D83" t="s">
         <v>44</v>
       </c>
       <c r="E83" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="F83" s="1"/>
     </row>
@@ -2242,13 +2234,13 @@
         <v>22</v>
       </c>
       <c r="C84" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D84" t="s">
         <v>45</v>
       </c>
       <c r="E84" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F84" s="1"/>
     </row>
@@ -2260,13 +2252,13 @@
         <v>22</v>
       </c>
       <c r="C85" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D85" t="s">
         <v>46</v>
       </c>
       <c r="E85" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F85" s="1"/>
     </row>
@@ -2278,7 +2270,7 @@
         <v>22</v>
       </c>
       <c r="C86" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D86" t="s">
         <v>47</v>
@@ -2296,13 +2288,13 @@
         <v>22</v>
       </c>
       <c r="C87" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D87" t="s">
         <v>48</v>
       </c>
       <c r="E87" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F87" s="1"/>
     </row>
@@ -2314,33 +2306,33 @@
         <v>22</v>
       </c>
       <c r="C88" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D88" t="s">
         <v>49</v>
       </c>
       <c r="E88" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="F88" s="1"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A89" t="s">
-        <v>21</v>
-      </c>
-      <c r="B89" t="s">
-        <v>22</v>
-      </c>
-      <c r="C89" t="s">
-        <v>25</v>
-      </c>
-      <c r="D89" t="s">
-        <v>50</v>
-      </c>
-      <c r="E89" t="s">
-        <v>35</v>
-      </c>
-      <c r="F89" s="1"/>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A91" t="s">
+        <v>23</v>
+      </c>
+      <c r="B91" t="s">
+        <v>26</v>
+      </c>
+      <c r="C91" t="s">
+        <v>8</v>
+      </c>
+      <c r="D91" t="s">
+        <v>8</v>
+      </c>
+      <c r="E91" t="s">
+        <v>9</v>
+      </c>
+      <c r="F91" s="1"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
@@ -2350,13 +2342,13 @@
         <v>26</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D92" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="E92" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="F92" s="1"/>
     </row>
@@ -2368,33 +2360,15 @@
         <v>26</v>
       </c>
       <c r="C93" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D93" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E93" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F93" s="1"/>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A94" t="s">
-        <v>23</v>
-      </c>
-      <c r="B94" t="s">
-        <v>26</v>
-      </c>
-      <c r="C94" t="s">
-        <v>25</v>
-      </c>
-      <c r="D94" t="s">
-        <v>50</v>
-      </c>
-      <c r="E94" t="s">
-        <v>38</v>
-      </c>
-      <c r="F94" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Code/ProjectStrategicLeadershipPlugin/数据库结构.xlsx
+++ b/Code/ProjectStrategicLeadershipPlugin/数据库结构.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="146">
   <si>
     <t>表中文名</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -558,6 +558,26 @@
   </si>
   <si>
     <t>申报日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>责任单位联系人职务</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnitContactJob</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作单位所属大单位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>责任单位联系人职务</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作单位联系人职务</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -922,10 +942,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G93"/>
+  <dimension ref="A1:G98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="D79" sqref="D79"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="D71" sqref="D71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1150,10 +1170,10 @@
         <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="D12" t="s">
-        <v>66</v>
+        <v>142</v>
       </c>
       <c r="E12" t="s">
         <v>75</v>
@@ -1168,13 +1188,13 @@
         <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="D13" t="s">
-        <v>111</v>
+        <v>66</v>
       </c>
       <c r="E13" t="s">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="F13" s="1"/>
     </row>
@@ -1186,13 +1206,13 @@
         <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E14" t="s">
-        <v>96</v>
+        <v>27</v>
       </c>
       <c r="F14" s="1"/>
     </row>
@@ -1204,33 +1224,33 @@
         <v>16</v>
       </c>
       <c r="C15" t="s">
+        <v>116</v>
+      </c>
+      <c r="D15" t="s">
+        <v>112</v>
+      </c>
+      <c r="E15" t="s">
+        <v>96</v>
+      </c>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
         <v>140</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D16" t="s">
         <v>132</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E16" t="s">
         <v>72</v>
       </c>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" t="s">
-        <v>9</v>
-      </c>
-      <c r="F18" s="1"/>
+      <c r="F16" s="1"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
@@ -1240,13 +1260,13 @@
         <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>113</v>
+        <v>8</v>
       </c>
       <c r="D19" t="s">
-        <v>110</v>
+        <v>8</v>
       </c>
       <c r="E19" t="s">
-        <v>75</v>
+        <v>9</v>
       </c>
       <c r="F19" s="1"/>
     </row>
@@ -1258,10 +1278,10 @@
         <v>17</v>
       </c>
       <c r="C20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D20" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="E20" t="s">
         <v>75</v>
@@ -1276,13 +1296,13 @@
         <v>17</v>
       </c>
       <c r="C21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D21" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="E21" t="s">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="F21" s="1"/>
     </row>
@@ -1294,13 +1314,13 @@
         <v>17</v>
       </c>
       <c r="C22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D22" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E22" t="s">
-        <v>96</v>
+        <v>27</v>
       </c>
       <c r="F22" s="1"/>
     </row>
@@ -1312,13 +1332,13 @@
         <v>17</v>
       </c>
       <c r="C23" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D23" t="s">
-        <v>63</v>
+        <v>112</v>
       </c>
       <c r="E23" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="F23" s="1"/>
     </row>
@@ -1330,10 +1350,10 @@
         <v>17</v>
       </c>
       <c r="C24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E24" t="s">
         <v>75</v>
@@ -1348,10 +1368,10 @@
         <v>17</v>
       </c>
       <c r="C25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E25" t="s">
         <v>75</v>
@@ -1366,69 +1386,69 @@
         <v>17</v>
       </c>
       <c r="C26" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="D26" t="s">
-        <v>66</v>
+        <v>133</v>
       </c>
       <c r="E26" t="s">
         <v>75</v>
       </c>
       <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" t="s">
+        <v>119</v>
+      </c>
+      <c r="D27" t="s">
+        <v>65</v>
+      </c>
+      <c r="E27" t="s">
+        <v>75</v>
+      </c>
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" t="s">
+        <v>141</v>
+      </c>
+      <c r="D28" t="s">
+        <v>142</v>
+      </c>
+      <c r="E28" t="s">
+        <v>75</v>
+      </c>
+      <c r="F28" s="1"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B29" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>120</v>
       </c>
       <c r="D29" t="s">
-        <v>8</v>
+        <v>66</v>
       </c>
       <c r="E29" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="F29" s="1"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A30" t="s">
-        <v>11</v>
-      </c>
-      <c r="B30" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" t="s">
-        <v>97</v>
-      </c>
-      <c r="D30" t="s">
-        <v>43</v>
-      </c>
-      <c r="E30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F30" s="1"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A31" t="s">
-        <v>11</v>
-      </c>
-      <c r="B31" t="s">
-        <v>12</v>
-      </c>
-      <c r="C31" t="s">
-        <v>98</v>
-      </c>
-      <c r="D31" t="s">
-        <v>93</v>
-      </c>
-      <c r="E31" t="s">
-        <v>27</v>
-      </c>
-      <c r="F31" s="1"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
@@ -1438,13 +1458,13 @@
         <v>12</v>
       </c>
       <c r="C32" t="s">
-        <v>103</v>
+        <v>8</v>
       </c>
       <c r="D32" t="s">
-        <v>99</v>
+        <v>8</v>
       </c>
       <c r="E32" t="s">
-        <v>76</v>
+        <v>9</v>
       </c>
       <c r="F32" s="1"/>
     </row>
@@ -1456,13 +1476,13 @@
         <v>12</v>
       </c>
       <c r="C33" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="D33" t="s">
-        <v>100</v>
+        <v>43</v>
       </c>
       <c r="E33" t="s">
-        <v>76</v>
+        <v>9</v>
       </c>
       <c r="F33" s="1"/>
     </row>
@@ -1474,13 +1494,13 @@
         <v>12</v>
       </c>
       <c r="C34" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D34" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="E34" t="s">
-        <v>76</v>
+        <v>27</v>
       </c>
       <c r="F34" s="1"/>
     </row>
@@ -1492,10 +1512,10 @@
         <v>12</v>
       </c>
       <c r="C35" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D35" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E35" t="s">
         <v>76</v>
@@ -1510,13 +1530,13 @@
         <v>12</v>
       </c>
       <c r="C36" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D36" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E36" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="F36" s="1"/>
     </row>
@@ -1528,68 +1548,68 @@
         <v>12</v>
       </c>
       <c r="C37" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D37" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="E37" t="s">
-        <v>27</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="F37" s="1"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" t="s">
+        <v>106</v>
+      </c>
+      <c r="D38" t="s">
+        <v>102</v>
+      </c>
+      <c r="E38" t="s">
+        <v>76</v>
+      </c>
+      <c r="F38" s="1"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
+        <v>11</v>
+      </c>
+      <c r="B39" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" t="s">
+        <v>107</v>
+      </c>
+      <c r="D39" t="s">
+        <v>94</v>
+      </c>
+      <c r="E39" t="s">
+        <v>96</v>
+      </c>
+      <c r="F39" s="1"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>108</v>
       </c>
       <c r="D40" t="s">
-        <v>8</v>
+        <v>95</v>
       </c>
       <c r="E40" t="s">
-        <v>9</v>
-      </c>
-      <c r="F40" s="1"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A41" t="s">
-        <v>13</v>
-      </c>
-      <c r="B41" t="s">
-        <v>18</v>
-      </c>
-      <c r="C41" t="s">
-        <v>97</v>
-      </c>
-      <c r="D41" t="s">
-        <v>43</v>
-      </c>
-      <c r="E41" t="s">
-        <v>9</v>
-      </c>
-      <c r="F41" s="1"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A42" t="s">
-        <v>13</v>
-      </c>
-      <c r="B42" t="s">
-        <v>18</v>
-      </c>
-      <c r="C42" t="s">
-        <v>109</v>
-      </c>
-      <c r="D42" t="s">
-        <v>70</v>
-      </c>
-      <c r="E42" t="s">
-        <v>9</v>
-      </c>
-      <c r="F42" s="1"/>
+        <v>27</v>
+      </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
@@ -1599,13 +1619,13 @@
         <v>18</v>
       </c>
       <c r="C43" t="s">
-        <v>98</v>
+        <v>8</v>
       </c>
       <c r="D43" t="s">
-        <v>93</v>
+        <v>8</v>
       </c>
       <c r="E43" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="F43" s="1"/>
     </row>
@@ -1617,13 +1637,13 @@
         <v>18</v>
       </c>
       <c r="C44" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D44" t="s">
-        <v>99</v>
+        <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>76</v>
+        <v>9</v>
       </c>
       <c r="F44" s="1"/>
     </row>
@@ -1635,13 +1655,13 @@
         <v>18</v>
       </c>
       <c r="C45" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D45" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="E45" t="s">
-        <v>76</v>
+        <v>9</v>
       </c>
       <c r="F45" s="1"/>
     </row>
@@ -1653,13 +1673,13 @@
         <v>18</v>
       </c>
       <c r="C46" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D46" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="E46" t="s">
-        <v>76</v>
+        <v>27</v>
       </c>
       <c r="F46" s="1"/>
     </row>
@@ -1671,10 +1691,10 @@
         <v>18</v>
       </c>
       <c r="C47" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D47" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E47" t="s">
         <v>76</v>
@@ -1689,13 +1709,13 @@
         <v>18</v>
       </c>
       <c r="C48" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D48" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E48" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="F48" s="1"/>
     </row>
@@ -1707,68 +1727,68 @@
         <v>18</v>
       </c>
       <c r="C49" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D49" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="E49" t="s">
-        <v>27</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="F49" s="1"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A50" t="s">
+        <v>13</v>
+      </c>
+      <c r="B50" t="s">
+        <v>18</v>
+      </c>
+      <c r="C50" t="s">
+        <v>106</v>
+      </c>
+      <c r="D50" t="s">
+        <v>102</v>
+      </c>
+      <c r="E50" t="s">
+        <v>76</v>
+      </c>
+      <c r="F50" s="1"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A51" t="s">
+        <v>13</v>
+      </c>
+      <c r="B51" t="s">
+        <v>18</v>
+      </c>
+      <c r="C51" t="s">
+        <v>107</v>
+      </c>
+      <c r="D51" t="s">
+        <v>94</v>
+      </c>
+      <c r="E51" t="s">
+        <v>96</v>
+      </c>
+      <c r="F51" s="1"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B52" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>108</v>
       </c>
       <c r="D52" t="s">
-        <v>8</v>
+        <v>95</v>
       </c>
       <c r="E52" t="s">
-        <v>9</v>
-      </c>
-      <c r="F52" s="1"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A53" t="s">
-        <v>14</v>
-      </c>
-      <c r="B53" t="s">
-        <v>19</v>
-      </c>
-      <c r="C53" t="s">
-        <v>97</v>
-      </c>
-      <c r="D53" t="s">
-        <v>43</v>
-      </c>
-      <c r="E53" t="s">
-        <v>9</v>
-      </c>
-      <c r="F53" s="1"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A54" t="s">
-        <v>14</v>
-      </c>
-      <c r="B54" t="s">
-        <v>19</v>
-      </c>
-      <c r="C54" t="s">
-        <v>78</v>
-      </c>
-      <c r="D54" t="s">
-        <v>54</v>
-      </c>
-      <c r="E54" t="s">
-        <v>74</v>
-      </c>
-      <c r="F54" s="1"/>
+        <v>27</v>
+      </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
@@ -1778,13 +1798,13 @@
         <v>19</v>
       </c>
       <c r="C55" t="s">
-        <v>79</v>
+        <v>8</v>
       </c>
       <c r="D55" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="E55" t="s">
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="F55" s="1"/>
     </row>
@@ -1796,13 +1816,13 @@
         <v>19</v>
       </c>
       <c r="C56" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="D56" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E56" t="s">
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="F56" s="1"/>
     </row>
@@ -1814,10 +1834,10 @@
         <v>19</v>
       </c>
       <c r="C57" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D57" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E57" t="s">
         <v>74</v>
@@ -1832,13 +1852,13 @@
         <v>19</v>
       </c>
       <c r="C58" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D58" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="E58" t="s">
-        <v>9</v>
+        <v>74</v>
       </c>
       <c r="F58" s="1"/>
     </row>
@@ -1850,13 +1870,13 @@
         <v>19</v>
       </c>
       <c r="C59" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D59" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E59" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F59" s="1"/>
     </row>
@@ -1868,10 +1888,10 @@
         <v>19</v>
       </c>
       <c r="C60" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D60" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E60" t="s">
         <v>74</v>
@@ -1886,13 +1906,13 @@
         <v>19</v>
       </c>
       <c r="C61" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D61" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E61" t="s">
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="F61" s="1"/>
     </row>
@@ -1904,13 +1924,13 @@
         <v>19</v>
       </c>
       <c r="C62" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D62" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E62" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F62" s="1"/>
     </row>
@@ -1922,13 +1942,13 @@
         <v>19</v>
       </c>
       <c r="C63" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D63" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E63" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F63" s="1"/>
     </row>
@@ -1940,13 +1960,13 @@
         <v>19</v>
       </c>
       <c r="C64" t="s">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="D64" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E64" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F64" s="1"/>
     </row>
@@ -1958,10 +1978,10 @@
         <v>19</v>
       </c>
       <c r="C65" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
       <c r="D65" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E65" t="s">
         <v>75</v>
@@ -1976,13 +1996,13 @@
         <v>19</v>
       </c>
       <c r="C66" t="s">
-        <v>123</v>
+        <v>87</v>
       </c>
       <c r="D66" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E66" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F66" s="1"/>
     </row>
@@ -1994,10 +2014,10 @@
         <v>19</v>
       </c>
       <c r="C67" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D67" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E67" t="s">
         <v>75</v>
@@ -2012,13 +2032,13 @@
         <v>19</v>
       </c>
       <c r="C68" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="D68" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E68" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F68" s="1"/>
     </row>
@@ -2030,13 +2050,13 @@
         <v>19</v>
       </c>
       <c r="C69" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="D69" t="s">
-        <v>68</v>
+        <v>133</v>
       </c>
       <c r="E69" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F69" s="1"/>
     </row>
@@ -2048,13 +2068,13 @@
         <v>19</v>
       </c>
       <c r="C70" t="s">
-        <v>90</v>
+        <v>123</v>
       </c>
       <c r="D70" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E70" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="F70" s="1"/>
     </row>
@@ -2066,13 +2086,13 @@
         <v>19</v>
       </c>
       <c r="C71" t="s">
-        <v>91</v>
+        <v>145</v>
       </c>
       <c r="D71" t="s">
-        <v>70</v>
+        <v>142</v>
       </c>
       <c r="E71" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="F71" s="1"/>
     </row>
@@ -2084,34 +2104,64 @@
         <v>19</v>
       </c>
       <c r="C72" t="s">
-        <v>92</v>
+        <v>124</v>
       </c>
       <c r="D72" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E72" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F72" s="1"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A73" t="s">
+        <v>14</v>
+      </c>
+      <c r="B73" t="s">
+        <v>19</v>
+      </c>
+      <c r="C73" t="s">
+        <v>88</v>
+      </c>
+      <c r="D73" t="s">
+        <v>67</v>
+      </c>
+      <c r="E73" t="s">
+        <v>76</v>
+      </c>
       <c r="F73" s="1"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A74" t="s">
+        <v>14</v>
+      </c>
+      <c r="B74" t="s">
+        <v>19</v>
+      </c>
+      <c r="C74" t="s">
+        <v>89</v>
+      </c>
+      <c r="D74" t="s">
+        <v>68</v>
+      </c>
+      <c r="E74" t="s">
+        <v>73</v>
+      </c>
       <c r="F74" s="1"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B75" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>90</v>
       </c>
       <c r="D75" t="s">
-        <v>8</v>
+        <v>69</v>
       </c>
       <c r="E75" t="s">
         <v>9</v>
@@ -2120,16 +2170,16 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B76" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C76" t="s">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="D76" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="E76" t="s">
         <v>9</v>
@@ -2138,52 +2188,58 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
+        <v>14</v>
+      </c>
+      <c r="B77" t="s">
+        <v>19</v>
+      </c>
+      <c r="C77" t="s">
+        <v>92</v>
+      </c>
+      <c r="D77" t="s">
+        <v>71</v>
+      </c>
+      <c r="E77" t="s">
+        <v>74</v>
+      </c>
+      <c r="F77" s="1"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F78" s="1"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F79" s="1"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A80" t="s">
         <v>15</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B80" t="s">
         <v>20</v>
       </c>
-      <c r="C77" t="s">
-        <v>52</v>
-      </c>
-      <c r="D77" t="s">
-        <v>41</v>
-      </c>
-      <c r="E77" t="s">
-        <v>34</v>
-      </c>
-      <c r="F77" s="1"/>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A78" t="s">
-        <v>15</v>
-      </c>
-      <c r="B78" t="s">
-        <v>20</v>
-      </c>
-      <c r="C78" t="s">
-        <v>53</v>
-      </c>
-      <c r="D78" t="s">
-        <v>42</v>
-      </c>
-      <c r="E78" t="s">
-        <v>34</v>
-      </c>
-      <c r="F78" s="1"/>
+      <c r="C80" t="s">
+        <v>8</v>
+      </c>
+      <c r="D80" t="s">
+        <v>8</v>
+      </c>
+      <c r="E80" t="s">
+        <v>9</v>
+      </c>
+      <c r="F80" s="1"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="D81" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="E81" t="s">
         <v>9</v>
@@ -2192,75 +2248,39 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B82" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C82" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="D82" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E82" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="F82" s="1"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B83" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C83" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="D83" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E83" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F83" s="1"/>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A84" t="s">
-        <v>21</v>
-      </c>
-      <c r="B84" t="s">
-        <v>22</v>
-      </c>
-      <c r="C84" t="s">
-        <v>30</v>
-      </c>
-      <c r="D84" t="s">
-        <v>45</v>
-      </c>
-      <c r="E84" t="s">
-        <v>36</v>
-      </c>
-      <c r="F84" s="1"/>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A85" t="s">
-        <v>21</v>
-      </c>
-      <c r="B85" t="s">
-        <v>22</v>
-      </c>
-      <c r="C85" t="s">
-        <v>31</v>
-      </c>
-      <c r="D85" t="s">
-        <v>46</v>
-      </c>
-      <c r="E85" t="s">
-        <v>35</v>
-      </c>
-      <c r="F85" s="1"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
@@ -2270,13 +2290,13 @@
         <v>22</v>
       </c>
       <c r="C86" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="D86" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="E86" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="F86" s="1"/>
     </row>
@@ -2288,13 +2308,13 @@
         <v>22</v>
       </c>
       <c r="C87" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D87" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E87" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="F87" s="1"/>
     </row>
@@ -2306,58 +2326,94 @@
         <v>22</v>
       </c>
       <c r="C88" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D88" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E88" t="s">
         <v>35</v>
       </c>
       <c r="F88" s="1"/>
     </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A89" t="s">
+        <v>21</v>
+      </c>
+      <c r="B89" t="s">
+        <v>22</v>
+      </c>
+      <c r="C89" t="s">
+        <v>30</v>
+      </c>
+      <c r="D89" t="s">
+        <v>45</v>
+      </c>
+      <c r="E89" t="s">
+        <v>36</v>
+      </c>
+      <c r="F89" s="1"/>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A90" t="s">
+        <v>21</v>
+      </c>
+      <c r="B90" t="s">
+        <v>22</v>
+      </c>
+      <c r="C90" t="s">
+        <v>31</v>
+      </c>
+      <c r="D90" t="s">
+        <v>46</v>
+      </c>
+      <c r="E90" t="s">
+        <v>35</v>
+      </c>
+      <c r="F90" s="1"/>
+    </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B91" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="D91" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="E91" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="F91" s="1"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B92" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C92" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="D92" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E92" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="F92" s="1"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B93" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C93" t="s">
         <v>25</v>
@@ -2366,9 +2422,63 @@
         <v>49</v>
       </c>
       <c r="E93" t="s">
+        <v>35</v>
+      </c>
+      <c r="F93" s="1"/>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A96" t="s">
+        <v>23</v>
+      </c>
+      <c r="B96" t="s">
+        <v>26</v>
+      </c>
+      <c r="C96" t="s">
+        <v>8</v>
+      </c>
+      <c r="D96" t="s">
+        <v>8</v>
+      </c>
+      <c r="E96" t="s">
+        <v>9</v>
+      </c>
+      <c r="F96" s="1"/>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A97" t="s">
+        <v>23</v>
+      </c>
+      <c r="B97" t="s">
+        <v>26</v>
+      </c>
+      <c r="C97" t="s">
+        <v>24</v>
+      </c>
+      <c r="D97" t="s">
+        <v>50</v>
+      </c>
+      <c r="E97" t="s">
+        <v>37</v>
+      </c>
+      <c r="F97" s="1"/>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A98" t="s">
+        <v>23</v>
+      </c>
+      <c r="B98" t="s">
+        <v>26</v>
+      </c>
+      <c r="C98" t="s">
+        <v>25</v>
+      </c>
+      <c r="D98" t="s">
+        <v>49</v>
+      </c>
+      <c r="E98" t="s">
         <v>38</v>
       </c>
-      <c r="F93" s="1"/>
+      <c r="F98" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Code/ProjectStrategicLeadershipPlugin/数据库结构.xlsx
+++ b/Code/ProjectStrategicLeadershipPlugin/数据库结构.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="149">
   <si>
     <t>表中文名</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -578,6 +578,18 @@
   </si>
   <si>
     <t>工作单位联系人职务</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>责任单位联系人电话</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目负责人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProjectMasterName</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -942,10 +954,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G98"/>
+  <dimension ref="A1:G99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="D71" sqref="D71"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1080,10 +1092,10 @@
         <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>117</v>
+        <v>147</v>
       </c>
       <c r="D7" t="s">
-        <v>63</v>
+        <v>148</v>
       </c>
       <c r="E7" t="s">
         <v>75</v>
@@ -1098,10 +1110,10 @@
         <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="D8" t="s">
-        <v>131</v>
+        <v>63</v>
       </c>
       <c r="E8" t="s">
         <v>75</v>
@@ -1116,10 +1128,10 @@
         <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D9" t="s">
-        <v>64</v>
+        <v>131</v>
       </c>
       <c r="E9" t="s">
         <v>75</v>
@@ -1134,10 +1146,10 @@
         <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D10" t="s">
-        <v>133</v>
+        <v>64</v>
       </c>
       <c r="E10" t="s">
         <v>75</v>
@@ -1152,10 +1164,10 @@
         <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="D11" t="s">
-        <v>65</v>
+        <v>133</v>
       </c>
       <c r="E11" t="s">
         <v>75</v>
@@ -1170,10 +1182,10 @@
         <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
       <c r="D12" t="s">
-        <v>142</v>
+        <v>65</v>
       </c>
       <c r="E12" t="s">
         <v>75</v>
@@ -1188,10 +1200,10 @@
         <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="D13" t="s">
-        <v>66</v>
+        <v>142</v>
       </c>
       <c r="E13" t="s">
         <v>75</v>
@@ -1206,13 +1218,13 @@
         <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="D14" t="s">
-        <v>111</v>
+        <v>66</v>
       </c>
       <c r="E14" t="s">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="F14" s="1"/>
     </row>
@@ -1224,13 +1236,13 @@
         <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E15" t="s">
-        <v>96</v>
+        <v>27</v>
       </c>
       <c r="F15" s="1"/>
     </row>
@@ -1242,33 +1254,33 @@
         <v>16</v>
       </c>
       <c r="C16" t="s">
+        <v>116</v>
+      </c>
+      <c r="D16" t="s">
+        <v>112</v>
+      </c>
+      <c r="E16" t="s">
+        <v>96</v>
+      </c>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
         <v>140</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D17" t="s">
         <v>132</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E17" t="s">
         <v>72</v>
       </c>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A19" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" t="s">
-        <v>9</v>
-      </c>
-      <c r="F19" s="1"/>
+      <c r="F17" s="1"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
@@ -1278,13 +1290,13 @@
         <v>17</v>
       </c>
       <c r="C20" t="s">
-        <v>113</v>
+        <v>8</v>
       </c>
       <c r="D20" t="s">
-        <v>110</v>
+        <v>8</v>
       </c>
       <c r="E20" t="s">
-        <v>75</v>
+        <v>9</v>
       </c>
       <c r="F20" s="1"/>
     </row>
@@ -1296,10 +1308,10 @@
         <v>17</v>
       </c>
       <c r="C21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D21" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="E21" t="s">
         <v>75</v>
@@ -1314,13 +1326,13 @@
         <v>17</v>
       </c>
       <c r="C22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D22" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="E22" t="s">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="F22" s="1"/>
     </row>
@@ -1332,13 +1344,13 @@
         <v>17</v>
       </c>
       <c r="C23" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E23" t="s">
-        <v>96</v>
+        <v>27</v>
       </c>
       <c r="F23" s="1"/>
     </row>
@@ -1350,13 +1362,13 @@
         <v>17</v>
       </c>
       <c r="C24" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D24" t="s">
-        <v>63</v>
+        <v>112</v>
       </c>
       <c r="E24" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="F24" s="1"/>
     </row>
@@ -1368,10 +1380,10 @@
         <v>17</v>
       </c>
       <c r="C25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E25" t="s">
         <v>75</v>
@@ -1386,10 +1398,10 @@
         <v>17</v>
       </c>
       <c r="C26" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="D26" t="s">
-        <v>133</v>
+        <v>64</v>
       </c>
       <c r="E26" t="s">
         <v>75</v>
@@ -1404,10 +1416,10 @@
         <v>17</v>
       </c>
       <c r="C27" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="D27" t="s">
-        <v>65</v>
+        <v>133</v>
       </c>
       <c r="E27" t="s">
         <v>75</v>
@@ -1422,10 +1434,10 @@
         <v>17</v>
       </c>
       <c r="C28" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="D28" t="s">
-        <v>142</v>
+        <v>65</v>
       </c>
       <c r="E28" t="s">
         <v>75</v>
@@ -1440,33 +1452,33 @@
         <v>17</v>
       </c>
       <c r="C29" t="s">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="D29" t="s">
+        <v>142</v>
+      </c>
+      <c r="E29" t="s">
+        <v>75</v>
+      </c>
+      <c r="F29" s="1"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" t="s">
+        <v>146</v>
+      </c>
+      <c r="D30" t="s">
         <v>66</v>
       </c>
-      <c r="E29" t="s">
-        <v>75</v>
-      </c>
-      <c r="F29" s="1"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A32" t="s">
-        <v>11</v>
-      </c>
-      <c r="B32" t="s">
-        <v>12</v>
-      </c>
-      <c r="C32" t="s">
-        <v>8</v>
-      </c>
-      <c r="D32" t="s">
-        <v>8</v>
-      </c>
-      <c r="E32" t="s">
-        <v>9</v>
-      </c>
-      <c r="F32" s="1"/>
+      <c r="E30" t="s">
+        <v>75</v>
+      </c>
+      <c r="F30" s="1"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
@@ -1476,10 +1488,10 @@
         <v>12</v>
       </c>
       <c r="C33" t="s">
-        <v>97</v>
+        <v>8</v>
       </c>
       <c r="D33" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="E33" t="s">
         <v>9</v>
@@ -1494,13 +1506,13 @@
         <v>12</v>
       </c>
       <c r="C34" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D34" t="s">
-        <v>93</v>
+        <v>43</v>
       </c>
       <c r="E34" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="F34" s="1"/>
     </row>
@@ -1512,13 +1524,13 @@
         <v>12</v>
       </c>
       <c r="C35" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D35" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E35" t="s">
-        <v>76</v>
+        <v>27</v>
       </c>
       <c r="F35" s="1"/>
     </row>
@@ -1530,10 +1542,10 @@
         <v>12</v>
       </c>
       <c r="C36" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D36" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E36" t="s">
         <v>76</v>
@@ -1548,10 +1560,10 @@
         <v>12</v>
       </c>
       <c r="C37" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D37" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E37" t="s">
         <v>76</v>
@@ -1566,10 +1578,10 @@
         <v>12</v>
       </c>
       <c r="C38" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D38" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E38" t="s">
         <v>76</v>
@@ -1584,13 +1596,13 @@
         <v>12</v>
       </c>
       <c r="C39" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D39" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="E39" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="F39" s="1"/>
     </row>
@@ -1602,32 +1614,32 @@
         <v>12</v>
       </c>
       <c r="C40" t="s">
+        <v>107</v>
+      </c>
+      <c r="D40" t="s">
+        <v>94</v>
+      </c>
+      <c r="E40" t="s">
+        <v>96</v>
+      </c>
+      <c r="F40" s="1"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
+        <v>11</v>
+      </c>
+      <c r="B41" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" t="s">
         <v>108</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D41" t="s">
         <v>95</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E41" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A43" t="s">
-        <v>13</v>
-      </c>
-      <c r="B43" t="s">
-        <v>18</v>
-      </c>
-      <c r="C43" t="s">
-        <v>8</v>
-      </c>
-      <c r="D43" t="s">
-        <v>8</v>
-      </c>
-      <c r="E43" t="s">
-        <v>9</v>
-      </c>
-      <c r="F43" s="1"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
@@ -1637,10 +1649,10 @@
         <v>18</v>
       </c>
       <c r="C44" t="s">
-        <v>97</v>
+        <v>8</v>
       </c>
       <c r="D44" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="E44" t="s">
         <v>9</v>
@@ -1655,10 +1667,10 @@
         <v>18</v>
       </c>
       <c r="C45" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="D45" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="E45" t="s">
         <v>9</v>
@@ -1673,13 +1685,13 @@
         <v>18</v>
       </c>
       <c r="C46" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="D46" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="E46" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="F46" s="1"/>
     </row>
@@ -1691,13 +1703,13 @@
         <v>18</v>
       </c>
       <c r="C47" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D47" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E47" t="s">
-        <v>76</v>
+        <v>27</v>
       </c>
       <c r="F47" s="1"/>
     </row>
@@ -1709,10 +1721,10 @@
         <v>18</v>
       </c>
       <c r="C48" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D48" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E48" t="s">
         <v>76</v>
@@ -1727,10 +1739,10 @@
         <v>18</v>
       </c>
       <c r="C49" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D49" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E49" t="s">
         <v>76</v>
@@ -1745,10 +1757,10 @@
         <v>18</v>
       </c>
       <c r="C50" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D50" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E50" t="s">
         <v>76</v>
@@ -1763,13 +1775,13 @@
         <v>18</v>
       </c>
       <c r="C51" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D51" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="E51" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="F51" s="1"/>
     </row>
@@ -1781,32 +1793,32 @@
         <v>18</v>
       </c>
       <c r="C52" t="s">
+        <v>107</v>
+      </c>
+      <c r="D52" t="s">
+        <v>94</v>
+      </c>
+      <c r="E52" t="s">
+        <v>96</v>
+      </c>
+      <c r="F52" s="1"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A53" t="s">
+        <v>13</v>
+      </c>
+      <c r="B53" t="s">
+        <v>18</v>
+      </c>
+      <c r="C53" t="s">
         <v>108</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D53" t="s">
         <v>95</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E53" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A55" t="s">
-        <v>14</v>
-      </c>
-      <c r="B55" t="s">
-        <v>19</v>
-      </c>
-      <c r="C55" t="s">
-        <v>8</v>
-      </c>
-      <c r="D55" t="s">
-        <v>8</v>
-      </c>
-      <c r="E55" t="s">
-        <v>9</v>
-      </c>
-      <c r="F55" s="1"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
@@ -1816,10 +1828,10 @@
         <v>19</v>
       </c>
       <c r="C56" t="s">
-        <v>97</v>
+        <v>8</v>
       </c>
       <c r="D56" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="E56" t="s">
         <v>9</v>
@@ -1834,13 +1846,13 @@
         <v>19</v>
       </c>
       <c r="C57" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="D57" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="E57" t="s">
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="F57" s="1"/>
     </row>
@@ -1852,10 +1864,10 @@
         <v>19</v>
       </c>
       <c r="C58" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D58" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="E58" t="s">
         <v>74</v>
@@ -1870,10 +1882,10 @@
         <v>19</v>
       </c>
       <c r="C59" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D59" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="E59" t="s">
         <v>74</v>
@@ -1888,10 +1900,10 @@
         <v>19</v>
       </c>
       <c r="C60" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D60" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E60" t="s">
         <v>74</v>
@@ -1906,13 +1918,13 @@
         <v>19</v>
       </c>
       <c r="C61" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D61" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E61" t="s">
-        <v>9</v>
+        <v>74</v>
       </c>
       <c r="F61" s="1"/>
     </row>
@@ -1924,13 +1936,13 @@
         <v>19</v>
       </c>
       <c r="C62" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D62" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E62" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="F62" s="1"/>
     </row>
@@ -1942,13 +1954,13 @@
         <v>19</v>
       </c>
       <c r="C63" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D63" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E63" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F63" s="1"/>
     </row>
@@ -1960,10 +1972,10 @@
         <v>19</v>
       </c>
       <c r="C64" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D64" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E64" t="s">
         <v>74</v>
@@ -1978,13 +1990,13 @@
         <v>19</v>
       </c>
       <c r="C65" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D65" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E65" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F65" s="1"/>
     </row>
@@ -1996,13 +2008,13 @@
         <v>19</v>
       </c>
       <c r="C66" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D66" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E66" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F66" s="1"/>
     </row>
@@ -2014,13 +2026,13 @@
         <v>19</v>
       </c>
       <c r="C67" t="s">
-        <v>121</v>
+        <v>87</v>
       </c>
       <c r="D67" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E67" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F67" s="1"/>
     </row>
@@ -2032,10 +2044,10 @@
         <v>19</v>
       </c>
       <c r="C68" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D68" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E68" t="s">
         <v>75</v>
@@ -2050,10 +2062,10 @@
         <v>19</v>
       </c>
       <c r="C69" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="D69" t="s">
-        <v>133</v>
+        <v>64</v>
       </c>
       <c r="E69" t="s">
         <v>75</v>
@@ -2068,10 +2080,10 @@
         <v>19</v>
       </c>
       <c r="C70" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="D70" t="s">
-        <v>65</v>
+        <v>133</v>
       </c>
       <c r="E70" t="s">
         <v>75</v>
@@ -2086,10 +2098,10 @@
         <v>19</v>
       </c>
       <c r="C71" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="D71" t="s">
-        <v>142</v>
+        <v>65</v>
       </c>
       <c r="E71" t="s">
         <v>75</v>
@@ -2104,10 +2116,10 @@
         <v>19</v>
       </c>
       <c r="C72" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="D72" t="s">
-        <v>66</v>
+        <v>142</v>
       </c>
       <c r="E72" t="s">
         <v>75</v>
@@ -2122,13 +2134,13 @@
         <v>19</v>
       </c>
       <c r="C73" t="s">
-        <v>88</v>
+        <v>124</v>
       </c>
       <c r="D73" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E73" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F73" s="1"/>
     </row>
@@ -2140,13 +2152,13 @@
         <v>19</v>
       </c>
       <c r="C74" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D74" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E74" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F74" s="1"/>
     </row>
@@ -2158,13 +2170,13 @@
         <v>19</v>
       </c>
       <c r="C75" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D75" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E75" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
       <c r="F75" s="1"/>
     </row>
@@ -2176,10 +2188,10 @@
         <v>19</v>
       </c>
       <c r="C76" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D76" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E76" t="s">
         <v>9</v>
@@ -2194,38 +2206,38 @@
         <v>19</v>
       </c>
       <c r="C77" t="s">
+        <v>91</v>
+      </c>
+      <c r="D77" t="s">
+        <v>70</v>
+      </c>
+      <c r="E77" t="s">
+        <v>9</v>
+      </c>
+      <c r="F77" s="1"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A78" t="s">
+        <v>14</v>
+      </c>
+      <c r="B78" t="s">
+        <v>19</v>
+      </c>
+      <c r="C78" t="s">
         <v>92</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D78" t="s">
         <v>71</v>
       </c>
-      <c r="E77" t="s">
+      <c r="E78" t="s">
         <v>74</v>
       </c>
-      <c r="F77" s="1"/>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
       <c r="F78" s="1"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.15">
       <c r="F79" s="1"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A80" t="s">
-        <v>15</v>
-      </c>
-      <c r="B80" t="s">
-        <v>20</v>
-      </c>
-      <c r="C80" t="s">
-        <v>8</v>
-      </c>
-      <c r="D80" t="s">
-        <v>8</v>
-      </c>
-      <c r="E80" t="s">
-        <v>9</v>
-      </c>
       <c r="F80" s="1"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.15">
@@ -2236,10 +2248,10 @@
         <v>20</v>
       </c>
       <c r="C81" t="s">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="D81" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="E81" t="s">
         <v>9</v>
@@ -2254,13 +2266,13 @@
         <v>20</v>
       </c>
       <c r="C82" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D82" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E82" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="F82" s="1"/>
     </row>
@@ -2272,33 +2284,33 @@
         <v>20</v>
       </c>
       <c r="C83" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D83" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E83" t="s">
         <v>34</v>
       </c>
       <c r="F83" s="1"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A86" t="s">
-        <v>21</v>
-      </c>
-      <c r="B86" t="s">
-        <v>22</v>
-      </c>
-      <c r="C86" t="s">
-        <v>8</v>
-      </c>
-      <c r="D86" t="s">
-        <v>8</v>
-      </c>
-      <c r="E86" t="s">
-        <v>9</v>
-      </c>
-      <c r="F86" s="1"/>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A84" t="s">
+        <v>15</v>
+      </c>
+      <c r="B84" t="s">
+        <v>20</v>
+      </c>
+      <c r="C84" t="s">
+        <v>53</v>
+      </c>
+      <c r="D84" t="s">
+        <v>42</v>
+      </c>
+      <c r="E84" t="s">
+        <v>34</v>
+      </c>
+      <c r="F84" s="1"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
@@ -2308,10 +2320,10 @@
         <v>22</v>
       </c>
       <c r="C87" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="D87" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="E87" t="s">
         <v>9</v>
@@ -2326,13 +2338,13 @@
         <v>22</v>
       </c>
       <c r="C88" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D88" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E88" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="F88" s="1"/>
     </row>
@@ -2344,13 +2356,13 @@
         <v>22</v>
       </c>
       <c r="C89" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D89" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E89" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F89" s="1"/>
     </row>
@@ -2362,13 +2374,13 @@
         <v>22</v>
       </c>
       <c r="C90" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D90" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E90" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F90" s="1"/>
     </row>
@@ -2380,10 +2392,10 @@
         <v>22</v>
       </c>
       <c r="C91" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D91" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E91" t="s">
         <v>35</v>
@@ -2398,13 +2410,13 @@
         <v>22</v>
       </c>
       <c r="C92" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D92" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E92" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="F92" s="1"/>
     </row>
@@ -2416,33 +2428,33 @@
         <v>22</v>
       </c>
       <c r="C93" t="s">
+        <v>33</v>
+      </c>
+      <c r="D93" t="s">
+        <v>48</v>
+      </c>
+      <c r="E93" t="s">
+        <v>27</v>
+      </c>
+      <c r="F93" s="1"/>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A94" t="s">
+        <v>21</v>
+      </c>
+      <c r="B94" t="s">
+        <v>22</v>
+      </c>
+      <c r="C94" t="s">
         <v>25</v>
       </c>
-      <c r="D93" t="s">
+      <c r="D94" t="s">
         <v>49</v>
       </c>
-      <c r="E93" t="s">
+      <c r="E94" t="s">
         <v>35</v>
       </c>
-      <c r="F93" s="1"/>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A96" t="s">
-        <v>23</v>
-      </c>
-      <c r="B96" t="s">
-        <v>26</v>
-      </c>
-      <c r="C96" t="s">
-        <v>8</v>
-      </c>
-      <c r="D96" t="s">
-        <v>8</v>
-      </c>
-      <c r="E96" t="s">
-        <v>9</v>
-      </c>
-      <c r="F96" s="1"/>
+      <c r="F94" s="1"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
@@ -2452,13 +2464,13 @@
         <v>26</v>
       </c>
       <c r="C97" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D97" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="E97" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="F97" s="1"/>
     </row>
@@ -2470,15 +2482,33 @@
         <v>26</v>
       </c>
       <c r="C98" t="s">
+        <v>24</v>
+      </c>
+      <c r="D98" t="s">
+        <v>50</v>
+      </c>
+      <c r="E98" t="s">
+        <v>37</v>
+      </c>
+      <c r="F98" s="1"/>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A99" t="s">
+        <v>23</v>
+      </c>
+      <c r="B99" t="s">
+        <v>26</v>
+      </c>
+      <c r="C99" t="s">
         <v>25</v>
       </c>
-      <c r="D98" t="s">
+      <c r="D99" t="s">
         <v>49</v>
       </c>
-      <c r="E98" t="s">
+      <c r="E99" t="s">
         <v>38</v>
       </c>
-      <c r="F98" s="1"/>
+      <c r="F99" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Code/ProjectStrategicLeadershipPlugin/数据库结构.xlsx
+++ b/Code/ProjectStrategicLeadershipPlugin/数据库结构.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="151">
   <si>
     <t>表中文名</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -590,6 +590,14 @@
   </si>
   <si>
     <t>ProjectMasterName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>阶段ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>StepID</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -954,10 +962,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G99"/>
+  <dimension ref="A1:G100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1703,13 +1711,13 @@
         <v>18</v>
       </c>
       <c r="C47" t="s">
-        <v>98</v>
+        <v>149</v>
       </c>
       <c r="D47" t="s">
-        <v>93</v>
+        <v>150</v>
       </c>
       <c r="E47" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="F47" s="1"/>
     </row>
@@ -1721,13 +1729,13 @@
         <v>18</v>
       </c>
       <c r="C48" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D48" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E48" t="s">
-        <v>76</v>
+        <v>27</v>
       </c>
       <c r="F48" s="1"/>
     </row>
@@ -1739,10 +1747,10 @@
         <v>18</v>
       </c>
       <c r="C49" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D49" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E49" t="s">
         <v>76</v>
@@ -1757,10 +1765,10 @@
         <v>18</v>
       </c>
       <c r="C50" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D50" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E50" t="s">
         <v>76</v>
@@ -1775,10 +1783,10 @@
         <v>18</v>
       </c>
       <c r="C51" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D51" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E51" t="s">
         <v>76</v>
@@ -1793,13 +1801,13 @@
         <v>18</v>
       </c>
       <c r="C52" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D52" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="E52" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="F52" s="1"/>
     </row>
@@ -1811,32 +1819,32 @@
         <v>18</v>
       </c>
       <c r="C53" t="s">
+        <v>107</v>
+      </c>
+      <c r="D53" t="s">
+        <v>94</v>
+      </c>
+      <c r="E53" t="s">
+        <v>96</v>
+      </c>
+      <c r="F53" s="1"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A54" t="s">
+        <v>13</v>
+      </c>
+      <c r="B54" t="s">
+        <v>18</v>
+      </c>
+      <c r="C54" t="s">
         <v>108</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D54" t="s">
         <v>95</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E54" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A56" t="s">
-        <v>14</v>
-      </c>
-      <c r="B56" t="s">
-        <v>19</v>
-      </c>
-      <c r="C56" t="s">
-        <v>8</v>
-      </c>
-      <c r="D56" t="s">
-        <v>8</v>
-      </c>
-      <c r="E56" t="s">
-        <v>9</v>
-      </c>
-      <c r="F56" s="1"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
@@ -1846,10 +1854,10 @@
         <v>19</v>
       </c>
       <c r="C57" t="s">
-        <v>97</v>
+        <v>8</v>
       </c>
       <c r="D57" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="E57" t="s">
         <v>9</v>
@@ -1864,13 +1872,13 @@
         <v>19</v>
       </c>
       <c r="C58" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="D58" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="E58" t="s">
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="F58" s="1"/>
     </row>
@@ -1882,10 +1890,10 @@
         <v>19</v>
       </c>
       <c r="C59" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D59" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="E59" t="s">
         <v>74</v>
@@ -1900,10 +1908,10 @@
         <v>19</v>
       </c>
       <c r="C60" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D60" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="E60" t="s">
         <v>74</v>
@@ -1918,10 +1926,10 @@
         <v>19</v>
       </c>
       <c r="C61" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D61" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E61" t="s">
         <v>74</v>
@@ -1936,13 +1944,13 @@
         <v>19</v>
       </c>
       <c r="C62" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D62" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E62" t="s">
-        <v>9</v>
+        <v>74</v>
       </c>
       <c r="F62" s="1"/>
     </row>
@@ -1954,13 +1962,13 @@
         <v>19</v>
       </c>
       <c r="C63" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D63" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E63" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="F63" s="1"/>
     </row>
@@ -1972,13 +1980,13 @@
         <v>19</v>
       </c>
       <c r="C64" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D64" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E64" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F64" s="1"/>
     </row>
@@ -1990,10 +1998,10 @@
         <v>19</v>
       </c>
       <c r="C65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D65" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E65" t="s">
         <v>74</v>
@@ -2008,13 +2016,13 @@
         <v>19</v>
       </c>
       <c r="C66" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D66" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E66" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F66" s="1"/>
     </row>
@@ -2026,13 +2034,13 @@
         <v>19</v>
       </c>
       <c r="C67" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D67" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E67" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F67" s="1"/>
     </row>
@@ -2044,13 +2052,13 @@
         <v>19</v>
       </c>
       <c r="C68" t="s">
-        <v>121</v>
+        <v>87</v>
       </c>
       <c r="D68" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E68" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F68" s="1"/>
     </row>
@@ -2062,10 +2070,10 @@
         <v>19</v>
       </c>
       <c r="C69" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D69" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E69" t="s">
         <v>75</v>
@@ -2080,10 +2088,10 @@
         <v>19</v>
       </c>
       <c r="C70" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="D70" t="s">
-        <v>133</v>
+        <v>64</v>
       </c>
       <c r="E70" t="s">
         <v>75</v>
@@ -2098,10 +2106,10 @@
         <v>19</v>
       </c>
       <c r="C71" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="D71" t="s">
-        <v>65</v>
+        <v>133</v>
       </c>
       <c r="E71" t="s">
         <v>75</v>
@@ -2116,10 +2124,10 @@
         <v>19</v>
       </c>
       <c r="C72" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="D72" t="s">
-        <v>142</v>
+        <v>65</v>
       </c>
       <c r="E72" t="s">
         <v>75</v>
@@ -2134,10 +2142,10 @@
         <v>19</v>
       </c>
       <c r="C73" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="D73" t="s">
-        <v>66</v>
+        <v>142</v>
       </c>
       <c r="E73" t="s">
         <v>75</v>
@@ -2152,13 +2160,13 @@
         <v>19</v>
       </c>
       <c r="C74" t="s">
-        <v>88</v>
+        <v>124</v>
       </c>
       <c r="D74" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E74" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F74" s="1"/>
     </row>
@@ -2170,13 +2178,13 @@
         <v>19</v>
       </c>
       <c r="C75" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D75" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E75" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F75" s="1"/>
     </row>
@@ -2188,13 +2196,13 @@
         <v>19</v>
       </c>
       <c r="C76" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D76" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E76" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
       <c r="F76" s="1"/>
     </row>
@@ -2206,10 +2214,10 @@
         <v>19</v>
       </c>
       <c r="C77" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D77" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E77" t="s">
         <v>9</v>
@@ -2224,38 +2232,38 @@
         <v>19</v>
       </c>
       <c r="C78" t="s">
+        <v>91</v>
+      </c>
+      <c r="D78" t="s">
+        <v>70</v>
+      </c>
+      <c r="E78" t="s">
+        <v>9</v>
+      </c>
+      <c r="F78" s="1"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A79" t="s">
+        <v>14</v>
+      </c>
+      <c r="B79" t="s">
+        <v>19</v>
+      </c>
+      <c r="C79" t="s">
         <v>92</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D79" t="s">
         <v>71</v>
       </c>
-      <c r="E78" t="s">
+      <c r="E79" t="s">
         <v>74</v>
       </c>
-      <c r="F78" s="1"/>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
       <c r="F79" s="1"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.15">
       <c r="F80" s="1"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A81" t="s">
-        <v>15</v>
-      </c>
-      <c r="B81" t="s">
-        <v>20</v>
-      </c>
-      <c r="C81" t="s">
-        <v>8</v>
-      </c>
-      <c r="D81" t="s">
-        <v>8</v>
-      </c>
-      <c r="E81" t="s">
-        <v>9</v>
-      </c>
       <c r="F81" s="1"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.15">
@@ -2266,10 +2274,10 @@
         <v>20</v>
       </c>
       <c r="C82" t="s">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="D82" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="E82" t="s">
         <v>9</v>
@@ -2284,13 +2292,13 @@
         <v>20</v>
       </c>
       <c r="C83" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D83" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E83" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="F83" s="1"/>
     </row>
@@ -2302,33 +2310,33 @@
         <v>20</v>
       </c>
       <c r="C84" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D84" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E84" t="s">
         <v>34</v>
       </c>
       <c r="F84" s="1"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A87" t="s">
-        <v>21</v>
-      </c>
-      <c r="B87" t="s">
-        <v>22</v>
-      </c>
-      <c r="C87" t="s">
-        <v>8</v>
-      </c>
-      <c r="D87" t="s">
-        <v>8</v>
-      </c>
-      <c r="E87" t="s">
-        <v>9</v>
-      </c>
-      <c r="F87" s="1"/>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A85" t="s">
+        <v>15</v>
+      </c>
+      <c r="B85" t="s">
+        <v>20</v>
+      </c>
+      <c r="C85" t="s">
+        <v>53</v>
+      </c>
+      <c r="D85" t="s">
+        <v>42</v>
+      </c>
+      <c r="E85" t="s">
+        <v>34</v>
+      </c>
+      <c r="F85" s="1"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
@@ -2338,10 +2346,10 @@
         <v>22</v>
       </c>
       <c r="C88" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="D88" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="E88" t="s">
         <v>9</v>
@@ -2356,13 +2364,13 @@
         <v>22</v>
       </c>
       <c r="C89" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D89" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E89" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="F89" s="1"/>
     </row>
@@ -2374,13 +2382,13 @@
         <v>22</v>
       </c>
       <c r="C90" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D90" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E90" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F90" s="1"/>
     </row>
@@ -2392,13 +2400,13 @@
         <v>22</v>
       </c>
       <c r="C91" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D91" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E91" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F91" s="1"/>
     </row>
@@ -2410,10 +2418,10 @@
         <v>22</v>
       </c>
       <c r="C92" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D92" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E92" t="s">
         <v>35</v>
@@ -2428,13 +2436,13 @@
         <v>22</v>
       </c>
       <c r="C93" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D93" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E93" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="F93" s="1"/>
     </row>
@@ -2446,33 +2454,33 @@
         <v>22</v>
       </c>
       <c r="C94" t="s">
+        <v>33</v>
+      </c>
+      <c r="D94" t="s">
+        <v>48</v>
+      </c>
+      <c r="E94" t="s">
+        <v>27</v>
+      </c>
+      <c r="F94" s="1"/>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A95" t="s">
+        <v>21</v>
+      </c>
+      <c r="B95" t="s">
+        <v>22</v>
+      </c>
+      <c r="C95" t="s">
         <v>25</v>
       </c>
-      <c r="D94" t="s">
+      <c r="D95" t="s">
         <v>49</v>
       </c>
-      <c r="E94" t="s">
+      <c r="E95" t="s">
         <v>35</v>
       </c>
-      <c r="F94" s="1"/>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A97" t="s">
-        <v>23</v>
-      </c>
-      <c r="B97" t="s">
-        <v>26</v>
-      </c>
-      <c r="C97" t="s">
-        <v>8</v>
-      </c>
-      <c r="D97" t="s">
-        <v>8</v>
-      </c>
-      <c r="E97" t="s">
-        <v>9</v>
-      </c>
-      <c r="F97" s="1"/>
+      <c r="F95" s="1"/>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
@@ -2482,13 +2490,13 @@
         <v>26</v>
       </c>
       <c r="C98" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D98" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="E98" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="F98" s="1"/>
     </row>
@@ -2500,15 +2508,33 @@
         <v>26</v>
       </c>
       <c r="C99" t="s">
+        <v>24</v>
+      </c>
+      <c r="D99" t="s">
+        <v>50</v>
+      </c>
+      <c r="E99" t="s">
+        <v>37</v>
+      </c>
+      <c r="F99" s="1"/>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A100" t="s">
+        <v>23</v>
+      </c>
+      <c r="B100" t="s">
+        <v>26</v>
+      </c>
+      <c r="C100" t="s">
         <v>25</v>
       </c>
-      <c r="D99" t="s">
+      <c r="D100" t="s">
         <v>49</v>
       </c>
-      <c r="E99" t="s">
+      <c r="E100" t="s">
         <v>38</v>
       </c>
-      <c r="F99" s="1"/>
+      <c r="F100" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Code/ProjectStrategicLeadershipPlugin/数据库结构.xlsx
+++ b/Code/ProjectStrategicLeadershipPlugin/数据库结构.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="154">
   <si>
     <t>表中文名</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -598,6 +598,18 @@
   </si>
   <si>
     <t>StepID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DisplayOrder</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -629,7 +641,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -639,6 +651,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -657,9 +675,10 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -962,10 +981,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G100"/>
+  <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="H82" sqref="H82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2261,28 +2280,28 @@
       <c r="F79" s="1"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A80" t="s">
+        <v>14</v>
+      </c>
+      <c r="B80" t="s">
+        <v>19</v>
+      </c>
+      <c r="C80" t="s">
+        <v>151</v>
+      </c>
+      <c r="D80" t="s">
+        <v>152</v>
+      </c>
+      <c r="E80" t="s">
+        <v>153</v>
+      </c>
       <c r="F80" s="1"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="F81" s="1"/>
+      <c r="F81" s="2"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A82" t="s">
-        <v>15</v>
-      </c>
-      <c r="B82" t="s">
-        <v>20</v>
-      </c>
-      <c r="C82" t="s">
-        <v>8</v>
-      </c>
-      <c r="D82" t="s">
-        <v>8</v>
-      </c>
-      <c r="E82" t="s">
-        <v>9</v>
-      </c>
-      <c r="F82" s="1"/>
+      <c r="F82" s="2"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
@@ -2292,10 +2311,10 @@
         <v>20</v>
       </c>
       <c r="C83" t="s">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="D83" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="E83" t="s">
         <v>9</v>
@@ -2310,13 +2329,13 @@
         <v>20</v>
       </c>
       <c r="C84" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D84" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E84" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="F84" s="1"/>
     </row>
@@ -2328,33 +2347,33 @@
         <v>20</v>
       </c>
       <c r="C85" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D85" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E85" t="s">
         <v>34</v>
       </c>
       <c r="F85" s="1"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A88" t="s">
-        <v>21</v>
-      </c>
-      <c r="B88" t="s">
-        <v>22</v>
-      </c>
-      <c r="C88" t="s">
-        <v>8</v>
-      </c>
-      <c r="D88" t="s">
-        <v>8</v>
-      </c>
-      <c r="E88" t="s">
-        <v>9</v>
-      </c>
-      <c r="F88" s="1"/>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A86" t="s">
+        <v>15</v>
+      </c>
+      <c r="B86" t="s">
+        <v>20</v>
+      </c>
+      <c r="C86" t="s">
+        <v>53</v>
+      </c>
+      <c r="D86" t="s">
+        <v>42</v>
+      </c>
+      <c r="E86" t="s">
+        <v>34</v>
+      </c>
+      <c r="F86" s="1"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
@@ -2364,10 +2383,10 @@
         <v>22</v>
       </c>
       <c r="C89" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="D89" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="E89" t="s">
         <v>9</v>
@@ -2382,13 +2401,13 @@
         <v>22</v>
       </c>
       <c r="C90" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D90" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E90" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="F90" s="1"/>
     </row>
@@ -2400,13 +2419,13 @@
         <v>22</v>
       </c>
       <c r="C91" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D91" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E91" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F91" s="1"/>
     </row>
@@ -2418,13 +2437,13 @@
         <v>22</v>
       </c>
       <c r="C92" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D92" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E92" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F92" s="1"/>
     </row>
@@ -2436,10 +2455,10 @@
         <v>22</v>
       </c>
       <c r="C93" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D93" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E93" t="s">
         <v>35</v>
@@ -2454,13 +2473,13 @@
         <v>22</v>
       </c>
       <c r="C94" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D94" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E94" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="F94" s="1"/>
     </row>
@@ -2472,33 +2491,33 @@
         <v>22</v>
       </c>
       <c r="C95" t="s">
+        <v>33</v>
+      </c>
+      <c r="D95" t="s">
+        <v>48</v>
+      </c>
+      <c r="E95" t="s">
+        <v>27</v>
+      </c>
+      <c r="F95" s="1"/>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A96" t="s">
+        <v>21</v>
+      </c>
+      <c r="B96" t="s">
+        <v>22</v>
+      </c>
+      <c r="C96" t="s">
         <v>25</v>
       </c>
-      <c r="D95" t="s">
+      <c r="D96" t="s">
         <v>49</v>
       </c>
-      <c r="E95" t="s">
+      <c r="E96" t="s">
         <v>35</v>
       </c>
-      <c r="F95" s="1"/>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A98" t="s">
-        <v>23</v>
-      </c>
-      <c r="B98" t="s">
-        <v>26</v>
-      </c>
-      <c r="C98" t="s">
-        <v>8</v>
-      </c>
-      <c r="D98" t="s">
-        <v>8</v>
-      </c>
-      <c r="E98" t="s">
-        <v>9</v>
-      </c>
-      <c r="F98" s="1"/>
+      <c r="F96" s="1"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
@@ -2508,13 +2527,13 @@
         <v>26</v>
       </c>
       <c r="C99" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D99" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="E99" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="F99" s="1"/>
     </row>
@@ -2526,15 +2545,33 @@
         <v>26</v>
       </c>
       <c r="C100" t="s">
+        <v>24</v>
+      </c>
+      <c r="D100" t="s">
+        <v>50</v>
+      </c>
+      <c r="E100" t="s">
+        <v>37</v>
+      </c>
+      <c r="F100" s="1"/>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A101" t="s">
+        <v>23</v>
+      </c>
+      <c r="B101" t="s">
+        <v>26</v>
+      </c>
+      <c r="C101" t="s">
         <v>25</v>
       </c>
-      <c r="D100" t="s">
+      <c r="D101" t="s">
         <v>49</v>
       </c>
-      <c r="E100" t="s">
+      <c r="E101" t="s">
         <v>38</v>
       </c>
-      <c r="F100" s="1"/>
+      <c r="F101" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Code/ProjectStrategicLeadershipPlugin/数据库结构.xlsx
+++ b/Code/ProjectStrategicLeadershipPlugin/数据库结构.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="179">
   <si>
     <t>表中文名</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -589,27 +589,127 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>阶段ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>StepID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DisplayOrder</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目负责人性  别</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目负责人出生年月</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目负责人职务职称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目负责人座  机</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目负责人手  机</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>ProjectMasterName</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>阶段ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>StepID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>排序号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DisplayOrder</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
+    <t>ProjectMasterSex</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProjectMasterBirthday</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProjectMasterJob</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProjectMasterTelephone</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProjectMasterMobilephone</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目组联系人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TeamContactName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目组联系人性  别</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目组联系人出生年月</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目组联系人职务职称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目组联系人座  机</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目组联系人手  机</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目组联系人通信地址</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TeamContactSex</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TeamContactBirthday</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TeamContactJob</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TeamContactTelephone</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TeamContactMobilephone</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TeamContactAddress</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -617,7 +717,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -639,6 +739,13 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="黑体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="4">
@@ -675,10 +782,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -981,18 +1089,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G101"/>
+  <dimension ref="A1:G113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="H82" sqref="H82"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5.25" bestFit="1" customWidth="1"/>
@@ -1122,7 +1230,7 @@
         <v>147</v>
       </c>
       <c r="D7" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="E7" t="s">
         <v>75</v>
@@ -1137,10 +1245,10 @@
         <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>117</v>
+        <v>153</v>
       </c>
       <c r="D8" t="s">
-        <v>63</v>
+        <v>160</v>
       </c>
       <c r="E8" t="s">
         <v>75</v>
@@ -1155,13 +1263,13 @@
         <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>130</v>
+        <v>154</v>
       </c>
       <c r="D9" t="s">
-        <v>131</v>
+        <v>161</v>
       </c>
       <c r="E9" t="s">
-        <v>75</v>
+        <v>158</v>
       </c>
       <c r="F9" s="1"/>
     </row>
@@ -1173,10 +1281,10 @@
         <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>134</v>
+        <v>155</v>
       </c>
       <c r="D10" t="s">
-        <v>64</v>
+        <v>162</v>
       </c>
       <c r="E10" t="s">
         <v>75</v>
@@ -1191,10 +1299,10 @@
         <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>135</v>
+        <v>156</v>
       </c>
       <c r="D11" t="s">
-        <v>133</v>
+        <v>163</v>
       </c>
       <c r="E11" t="s">
         <v>75</v>
@@ -1209,136 +1317,172 @@
         <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>119</v>
+        <v>157</v>
       </c>
       <c r="D12" t="s">
-        <v>65</v>
+        <v>164</v>
       </c>
       <c r="E12" t="s">
         <v>75</v>
       </c>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>5</v>
       </c>
       <c r="B13" t="s">
         <v>16</v>
       </c>
-      <c r="C13" t="s">
-        <v>144</v>
+      <c r="C13" s="3" t="s">
+        <v>165</v>
       </c>
       <c r="D13" t="s">
-        <v>142</v>
+        <v>166</v>
       </c>
       <c r="E13" t="s">
         <v>75</v>
       </c>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>5</v>
       </c>
       <c r="B14" t="s">
         <v>16</v>
       </c>
-      <c r="C14" t="s">
-        <v>120</v>
+      <c r="C14" s="3" t="s">
+        <v>167</v>
       </c>
       <c r="D14" t="s">
-        <v>66</v>
+        <v>173</v>
       </c>
       <c r="E14" t="s">
         <v>75</v>
       </c>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>5</v>
       </c>
       <c r="B15" t="s">
         <v>16</v>
       </c>
-      <c r="C15" t="s">
-        <v>115</v>
+      <c r="C15" s="3" t="s">
+        <v>168</v>
       </c>
       <c r="D15" t="s">
-        <v>111</v>
+        <v>174</v>
       </c>
       <c r="E15" t="s">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>5</v>
       </c>
       <c r="B16" t="s">
         <v>16</v>
       </c>
-      <c r="C16" t="s">
-        <v>116</v>
+      <c r="C16" s="3" t="s">
+        <v>169</v>
       </c>
       <c r="D16" t="s">
-        <v>112</v>
+        <v>175</v>
       </c>
       <c r="E16" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>5</v>
       </c>
       <c r="B17" t="s">
         <v>16</v>
       </c>
-      <c r="C17" t="s">
-        <v>140</v>
+      <c r="C17" s="3" t="s">
+        <v>170</v>
       </c>
       <c r="D17" t="s">
-        <v>132</v>
+        <v>176</v>
       </c>
       <c r="E17" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D18" t="s">
+        <v>177</v>
+      </c>
+      <c r="E18" t="s">
+        <v>75</v>
+      </c>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D19" t="s">
+        <v>178</v>
+      </c>
+      <c r="E19" t="s">
+        <v>75</v>
+      </c>
+      <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>117</v>
       </c>
       <c r="D20" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="E20" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C21" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="D21" t="s">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="E21" t="s">
         <v>75</v>
@@ -1347,16 +1491,16 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C22" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="D22" t="s">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="E22" t="s">
         <v>75</v>
@@ -1365,52 +1509,52 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C23" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="D23" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="E23" t="s">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="F23" s="1"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C24" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D24" t="s">
-        <v>112</v>
+        <v>65</v>
       </c>
       <c r="E24" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C25" t="s">
-        <v>117</v>
+        <v>144</v>
       </c>
       <c r="D25" t="s">
-        <v>63</v>
+        <v>142</v>
       </c>
       <c r="E25" t="s">
         <v>75</v>
@@ -1419,16 +1563,16 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C26" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D26" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E26" t="s">
         <v>75</v>
@@ -1437,124 +1581,124 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C27" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="D27" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="E27" t="s">
-        <v>75</v>
+        <v>27</v>
       </c>
       <c r="F27" s="1"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C28" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D28" t="s">
-        <v>65</v>
+        <v>112</v>
       </c>
       <c r="E28" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="F28" s="1"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" t="s">
+        <v>140</v>
+      </c>
+      <c r="D29" t="s">
+        <v>132</v>
+      </c>
+      <c r="E29" t="s">
+        <v>72</v>
+      </c>
+      <c r="F29" s="1"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
         <v>10</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B32" t="s">
         <v>17</v>
       </c>
-      <c r="C29" t="s">
-        <v>141</v>
-      </c>
-      <c r="D29" t="s">
-        <v>142</v>
-      </c>
-      <c r="E29" t="s">
-        <v>75</v>
-      </c>
-      <c r="F29" s="1"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A30" t="s">
-        <v>10</v>
-      </c>
-      <c r="B30" t="s">
-        <v>17</v>
-      </c>
-      <c r="C30" t="s">
-        <v>146</v>
-      </c>
-      <c r="D30" t="s">
-        <v>66</v>
-      </c>
-      <c r="E30" t="s">
-        <v>75</v>
-      </c>
-      <c r="F30" s="1"/>
+      <c r="C32" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" s="1"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B33" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>113</v>
       </c>
       <c r="D33" t="s">
-        <v>8</v>
+        <v>110</v>
       </c>
       <c r="E33" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="F33" s="1"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B34" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C34" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="D34" t="s">
-        <v>43</v>
+        <v>128</v>
       </c>
       <c r="E34" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="F34" s="1"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B35" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C35" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="D35" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="E35" t="s">
         <v>27</v>
@@ -1563,141 +1707,142 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B36" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C36" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="D36" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="E36" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="F36" s="1"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B37" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C37" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="D37" t="s">
-        <v>100</v>
+        <v>63</v>
       </c>
       <c r="E37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F37" s="1"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B38" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C38" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D38" t="s">
-        <v>101</v>
+        <v>64</v>
       </c>
       <c r="E38" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F38" s="1"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B39" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C39" t="s">
-        <v>106</v>
+        <v>135</v>
       </c>
       <c r="D39" t="s">
-        <v>102</v>
+        <v>133</v>
       </c>
       <c r="E39" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F39" s="1"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B40" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C40" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="D40" t="s">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="E40" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="F40" s="1"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B41" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C41" t="s">
-        <v>108</v>
+        <v>141</v>
       </c>
       <c r="D41" t="s">
-        <v>95</v>
+        <v>142</v>
       </c>
       <c r="E41" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A44" t="s">
-        <v>13</v>
-      </c>
-      <c r="B44" t="s">
-        <v>18</v>
-      </c>
-      <c r="C44" t="s">
-        <v>8</v>
-      </c>
-      <c r="D44" t="s">
-        <v>8</v>
-      </c>
-      <c r="E44" t="s">
-        <v>9</v>
-      </c>
-      <c r="F44" s="1"/>
+        <v>75</v>
+      </c>
+      <c r="F41" s="1"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42" t="s">
+        <v>17</v>
+      </c>
+      <c r="C42" t="s">
+        <v>146</v>
+      </c>
+      <c r="D42" t="s">
+        <v>66</v>
+      </c>
+      <c r="E42" t="s">
+        <v>75</v>
+      </c>
+      <c r="F42" s="1"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B45" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C45" t="s">
-        <v>97</v>
+        <v>8</v>
       </c>
       <c r="D45" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="E45" t="s">
         <v>9</v>
@@ -1706,16 +1851,16 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B46" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C46" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="D46" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="E46" t="s">
         <v>9</v>
@@ -1724,52 +1869,52 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B47" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C47" t="s">
-        <v>149</v>
+        <v>98</v>
       </c>
       <c r="D47" t="s">
-        <v>150</v>
+        <v>93</v>
       </c>
       <c r="E47" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="F47" s="1"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B48" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C48" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D48" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E48" t="s">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="F48" s="1"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B49" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C49" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D49" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E49" t="s">
         <v>76</v>
@@ -1778,16 +1923,16 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B50" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C50" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D50" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E50" t="s">
         <v>76</v>
@@ -1796,16 +1941,16 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B51" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C51" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D51" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E51" t="s">
         <v>76</v>
@@ -1814,69 +1959,69 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B52" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C52" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D52" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="E52" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="F52" s="1"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
+        <v>11</v>
+      </c>
+      <c r="B53" t="s">
+        <v>12</v>
+      </c>
+      <c r="C53" t="s">
+        <v>108</v>
+      </c>
+      <c r="D53" t="s">
+        <v>95</v>
+      </c>
+      <c r="E53" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A56" t="s">
         <v>13</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B56" t="s">
         <v>18</v>
       </c>
-      <c r="C53" t="s">
-        <v>107</v>
-      </c>
-      <c r="D53" t="s">
-        <v>94</v>
-      </c>
-      <c r="E53" t="s">
-        <v>96</v>
-      </c>
-      <c r="F53" s="1"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A54" t="s">
-        <v>13</v>
-      </c>
-      <c r="B54" t="s">
-        <v>18</v>
-      </c>
-      <c r="C54" t="s">
-        <v>108</v>
-      </c>
-      <c r="D54" t="s">
-        <v>95</v>
-      </c>
-      <c r="E54" t="s">
-        <v>27</v>
-      </c>
+      <c r="C56" t="s">
+        <v>8</v>
+      </c>
+      <c r="D56" t="s">
+        <v>8</v>
+      </c>
+      <c r="E56" t="s">
+        <v>9</v>
+      </c>
+      <c r="F56" s="1"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B57" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>97</v>
       </c>
       <c r="D57" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="E57" t="s">
         <v>9</v>
@@ -1885,16 +2030,16 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B58" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C58" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="D58" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="E58" t="s">
         <v>9</v>
@@ -1903,183 +2048,146 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B59" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C59" t="s">
-        <v>78</v>
+        <v>148</v>
       </c>
       <c r="D59" t="s">
-        <v>54</v>
+        <v>149</v>
       </c>
       <c r="E59" t="s">
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="F59" s="1"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B60" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C60" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="D60" t="s">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="E60" t="s">
-        <v>74</v>
+        <v>27</v>
       </c>
       <c r="F60" s="1"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B61" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C61" t="s">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="D61" t="s">
-        <v>55</v>
+        <v>99</v>
       </c>
       <c r="E61" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F61" s="1"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B62" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C62" t="s">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="D62" t="s">
-        <v>56</v>
+        <v>100</v>
       </c>
       <c r="E62" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F62" s="1"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B63" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C63" t="s">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="D63" t="s">
-        <v>57</v>
+        <v>101</v>
       </c>
       <c r="E63" t="s">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="F63" s="1"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B64" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C64" t="s">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="D64" t="s">
-        <v>58</v>
+        <v>102</v>
       </c>
       <c r="E64" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F64" s="1"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B65" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C65" t="s">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="D65" t="s">
-        <v>59</v>
+        <v>94</v>
       </c>
       <c r="E65" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="F65" s="1"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B66" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C66" t="s">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="D66" t="s">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="E66" t="s">
-        <v>74</v>
-      </c>
-      <c r="F66" s="1"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A67" t="s">
-        <v>14</v>
-      </c>
-      <c r="B67" t="s">
-        <v>19</v>
-      </c>
-      <c r="C67" t="s">
-        <v>86</v>
-      </c>
-      <c r="D67" t="s">
-        <v>61</v>
-      </c>
-      <c r="E67" t="s">
-        <v>75</v>
-      </c>
-      <c r="F67" s="1"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A68" t="s">
-        <v>14</v>
-      </c>
-      <c r="B68" t="s">
-        <v>19</v>
-      </c>
-      <c r="C68" t="s">
-        <v>87</v>
-      </c>
-      <c r="D68" t="s">
-        <v>62</v>
-      </c>
-      <c r="E68" t="s">
-        <v>77</v>
-      </c>
-      <c r="F68" s="1"/>
+        <v>27</v>
+      </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
@@ -2089,13 +2197,13 @@
         <v>19</v>
       </c>
       <c r="C69" t="s">
-        <v>121</v>
+        <v>8</v>
       </c>
       <c r="D69" t="s">
-        <v>63</v>
+        <v>8</v>
       </c>
       <c r="E69" t="s">
-        <v>75</v>
+        <v>9</v>
       </c>
       <c r="F69" s="1"/>
     </row>
@@ -2107,13 +2215,13 @@
         <v>19</v>
       </c>
       <c r="C70" t="s">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="D70" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="E70" t="s">
-        <v>75</v>
+        <v>9</v>
       </c>
       <c r="F70" s="1"/>
     </row>
@@ -2125,13 +2233,13 @@
         <v>19</v>
       </c>
       <c r="C71" t="s">
-        <v>143</v>
+        <v>78</v>
       </c>
       <c r="D71" t="s">
-        <v>133</v>
+        <v>54</v>
       </c>
       <c r="E71" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F71" s="1"/>
     </row>
@@ -2143,13 +2251,13 @@
         <v>19</v>
       </c>
       <c r="C72" t="s">
-        <v>123</v>
+        <v>79</v>
       </c>
       <c r="D72" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="E72" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F72" s="1"/>
     </row>
@@ -2161,13 +2269,13 @@
         <v>19</v>
       </c>
       <c r="C73" t="s">
-        <v>145</v>
+        <v>80</v>
       </c>
       <c r="D73" t="s">
-        <v>142</v>
+        <v>55</v>
       </c>
       <c r="E73" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F73" s="1"/>
     </row>
@@ -2179,13 +2287,13 @@
         <v>19</v>
       </c>
       <c r="C74" t="s">
-        <v>124</v>
+        <v>81</v>
       </c>
       <c r="D74" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="E74" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F74" s="1"/>
     </row>
@@ -2197,13 +2305,13 @@
         <v>19</v>
       </c>
       <c r="C75" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D75" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="E75" t="s">
-        <v>76</v>
+        <v>9</v>
       </c>
       <c r="F75" s="1"/>
     </row>
@@ -2215,13 +2323,13 @@
         <v>19</v>
       </c>
       <c r="C76" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D76" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="E76" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F76" s="1"/>
     </row>
@@ -2233,13 +2341,13 @@
         <v>19</v>
       </c>
       <c r="C77" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D77" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="E77" t="s">
-        <v>9</v>
+        <v>74</v>
       </c>
       <c r="F77" s="1"/>
     </row>
@@ -2251,13 +2359,13 @@
         <v>19</v>
       </c>
       <c r="C78" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D78" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E78" t="s">
-        <v>9</v>
+        <v>74</v>
       </c>
       <c r="F78" s="1"/>
     </row>
@@ -2269,13 +2377,13 @@
         <v>19</v>
       </c>
       <c r="C79" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D79" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="E79" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F79" s="1"/>
     </row>
@@ -2287,106 +2395,172 @@
         <v>19</v>
       </c>
       <c r="C80" t="s">
-        <v>151</v>
+        <v>87</v>
       </c>
       <c r="D80" t="s">
-        <v>152</v>
+        <v>62</v>
       </c>
       <c r="E80" t="s">
-        <v>153</v>
+        <v>77</v>
       </c>
       <c r="F80" s="1"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="F81" s="2"/>
+      <c r="A81" t="s">
+        <v>14</v>
+      </c>
+      <c r="B81" t="s">
+        <v>19</v>
+      </c>
+      <c r="C81" t="s">
+        <v>121</v>
+      </c>
+      <c r="D81" t="s">
+        <v>63</v>
+      </c>
+      <c r="E81" t="s">
+        <v>75</v>
+      </c>
+      <c r="F81" s="1"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="F82" s="2"/>
+      <c r="A82" t="s">
+        <v>14</v>
+      </c>
+      <c r="B82" t="s">
+        <v>19</v>
+      </c>
+      <c r="C82" t="s">
+        <v>122</v>
+      </c>
+      <c r="D82" t="s">
+        <v>64</v>
+      </c>
+      <c r="E82" t="s">
+        <v>75</v>
+      </c>
+      <c r="F82" s="1"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B83" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>143</v>
       </c>
       <c r="D83" t="s">
-        <v>8</v>
+        <v>133</v>
       </c>
       <c r="E83" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="F83" s="1"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B84" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C84" t="s">
-        <v>51</v>
+        <v>123</v>
       </c>
       <c r="D84" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="E84" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="F84" s="1"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B85" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C85" t="s">
-        <v>52</v>
+        <v>145</v>
       </c>
       <c r="D85" t="s">
-        <v>41</v>
+        <v>142</v>
       </c>
       <c r="E85" t="s">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="F85" s="1"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B86" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C86" t="s">
-        <v>53</v>
+        <v>124</v>
       </c>
       <c r="D86" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="E86" t="s">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="F86" s="1"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A87" t="s">
+        <v>14</v>
+      </c>
+      <c r="B87" t="s">
+        <v>19</v>
+      </c>
+      <c r="C87" t="s">
+        <v>88</v>
+      </c>
+      <c r="D87" t="s">
+        <v>67</v>
+      </c>
+      <c r="E87" t="s">
+        <v>76</v>
+      </c>
+      <c r="F87" s="1"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A88" t="s">
+        <v>14</v>
+      </c>
+      <c r="B88" t="s">
+        <v>19</v>
+      </c>
+      <c r="C88" t="s">
+        <v>89</v>
+      </c>
+      <c r="D88" t="s">
+        <v>68</v>
+      </c>
+      <c r="E88" t="s">
+        <v>73</v>
+      </c>
+      <c r="F88" s="1"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B89" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>90</v>
       </c>
       <c r="D89" t="s">
-        <v>8</v>
+        <v>69</v>
       </c>
       <c r="E89" t="s">
         <v>9</v>
@@ -2395,16 +2569,16 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B90" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C90" t="s">
-        <v>28</v>
+        <v>91</v>
       </c>
       <c r="D90" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="E90" t="s">
         <v>9</v>
@@ -2413,165 +2587,315 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B91" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C91" t="s">
-        <v>29</v>
+        <v>92</v>
       </c>
       <c r="D91" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="E91" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="F91" s="1"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B92" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C92" t="s">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="D92" t="s">
-        <v>45</v>
+        <v>151</v>
       </c>
       <c r="E92" t="s">
-        <v>36</v>
+        <v>152</v>
       </c>
       <c r="F92" s="1"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A93" t="s">
-        <v>21</v>
-      </c>
-      <c r="B93" t="s">
-        <v>22</v>
-      </c>
-      <c r="C93" t="s">
-        <v>31</v>
-      </c>
-      <c r="D93" t="s">
-        <v>46</v>
-      </c>
-      <c r="E93" t="s">
-        <v>35</v>
-      </c>
-      <c r="F93" s="1"/>
+      <c r="F93" s="2"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A94" t="s">
-        <v>21</v>
-      </c>
-      <c r="B94" t="s">
-        <v>22</v>
-      </c>
-      <c r="C94" t="s">
-        <v>32</v>
-      </c>
-      <c r="D94" t="s">
-        <v>47</v>
-      </c>
-      <c r="E94" t="s">
-        <v>35</v>
-      </c>
-      <c r="F94" s="1"/>
+      <c r="F94" s="2"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B95" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C95" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="D95" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="E95" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="F95" s="1"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B96" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C96" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="D96" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="E96" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="F96" s="1"/>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A99" t="s">
-        <v>23</v>
-      </c>
-      <c r="B99" t="s">
-        <v>26</v>
-      </c>
-      <c r="C99" t="s">
-        <v>8</v>
-      </c>
-      <c r="D99" t="s">
-        <v>8</v>
-      </c>
-      <c r="E99" t="s">
-        <v>9</v>
-      </c>
-      <c r="F99" s="1"/>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A100" t="s">
-        <v>23</v>
-      </c>
-      <c r="B100" t="s">
-        <v>26</v>
-      </c>
-      <c r="C100" t="s">
-        <v>24</v>
-      </c>
-      <c r="D100" t="s">
-        <v>50</v>
-      </c>
-      <c r="E100" t="s">
-        <v>37</v>
-      </c>
-      <c r="F100" s="1"/>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A97" t="s">
+        <v>15</v>
+      </c>
+      <c r="B97" t="s">
+        <v>20</v>
+      </c>
+      <c r="C97" t="s">
+        <v>52</v>
+      </c>
+      <c r="D97" t="s">
+        <v>41</v>
+      </c>
+      <c r="E97" t="s">
+        <v>34</v>
+      </c>
+      <c r="F97" s="1"/>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A98" t="s">
+        <v>15</v>
+      </c>
+      <c r="B98" t="s">
+        <v>20</v>
+      </c>
+      <c r="C98" t="s">
+        <v>53</v>
+      </c>
+      <c r="D98" t="s">
+        <v>42</v>
+      </c>
+      <c r="E98" t="s">
+        <v>34</v>
+      </c>
+      <c r="F98" s="1"/>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
+        <v>21</v>
+      </c>
+      <c r="B101" t="s">
+        <v>22</v>
+      </c>
+      <c r="C101" t="s">
+        <v>8</v>
+      </c>
+      <c r="D101" t="s">
+        <v>8</v>
+      </c>
+      <c r="E101" t="s">
+        <v>9</v>
+      </c>
+      <c r="F101" s="1"/>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A102" t="s">
+        <v>21</v>
+      </c>
+      <c r="B102" t="s">
+        <v>22</v>
+      </c>
+      <c r="C102" t="s">
+        <v>28</v>
+      </c>
+      <c r="D102" t="s">
+        <v>43</v>
+      </c>
+      <c r="E102" t="s">
+        <v>9</v>
+      </c>
+      <c r="F102" s="1"/>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A103" t="s">
+        <v>21</v>
+      </c>
+      <c r="B103" t="s">
+        <v>22</v>
+      </c>
+      <c r="C103" t="s">
+        <v>29</v>
+      </c>
+      <c r="D103" t="s">
+        <v>44</v>
+      </c>
+      <c r="E103" t="s">
+        <v>35</v>
+      </c>
+      <c r="F103" s="1"/>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A104" t="s">
+        <v>21</v>
+      </c>
+      <c r="B104" t="s">
+        <v>22</v>
+      </c>
+      <c r="C104" t="s">
+        <v>30</v>
+      </c>
+      <c r="D104" t="s">
+        <v>45</v>
+      </c>
+      <c r="E104" t="s">
+        <v>36</v>
+      </c>
+      <c r="F104" s="1"/>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A105" t="s">
+        <v>21</v>
+      </c>
+      <c r="B105" t="s">
+        <v>22</v>
+      </c>
+      <c r="C105" t="s">
+        <v>31</v>
+      </c>
+      <c r="D105" t="s">
+        <v>46</v>
+      </c>
+      <c r="E105" t="s">
+        <v>35</v>
+      </c>
+      <c r="F105" s="1"/>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A106" t="s">
+        <v>21</v>
+      </c>
+      <c r="B106" t="s">
+        <v>22</v>
+      </c>
+      <c r="C106" t="s">
+        <v>32</v>
+      </c>
+      <c r="D106" t="s">
+        <v>47</v>
+      </c>
+      <c r="E106" t="s">
+        <v>35</v>
+      </c>
+      <c r="F106" s="1"/>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A107" t="s">
+        <v>21</v>
+      </c>
+      <c r="B107" t="s">
+        <v>22</v>
+      </c>
+      <c r="C107" t="s">
+        <v>33</v>
+      </c>
+      <c r="D107" t="s">
+        <v>48</v>
+      </c>
+      <c r="E107" t="s">
+        <v>27</v>
+      </c>
+      <c r="F107" s="1"/>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A108" t="s">
+        <v>21</v>
+      </c>
+      <c r="B108" t="s">
+        <v>22</v>
+      </c>
+      <c r="C108" t="s">
+        <v>25</v>
+      </c>
+      <c r="D108" t="s">
+        <v>49</v>
+      </c>
+      <c r="E108" t="s">
+        <v>35</v>
+      </c>
+      <c r="F108" s="1"/>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A111" t="s">
         <v>23</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B111" t="s">
         <v>26</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C111" t="s">
+        <v>8</v>
+      </c>
+      <c r="D111" t="s">
+        <v>8</v>
+      </c>
+      <c r="E111" t="s">
+        <v>9</v>
+      </c>
+      <c r="F111" s="1"/>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A112" t="s">
+        <v>23</v>
+      </c>
+      <c r="B112" t="s">
+        <v>26</v>
+      </c>
+      <c r="C112" t="s">
+        <v>24</v>
+      </c>
+      <c r="D112" t="s">
+        <v>50</v>
+      </c>
+      <c r="E112" t="s">
+        <v>37</v>
+      </c>
+      <c r="F112" s="1"/>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A113" t="s">
+        <v>23</v>
+      </c>
+      <c r="B113" t="s">
+        <v>26</v>
+      </c>
+      <c r="C113" t="s">
         <v>25</v>
       </c>
-      <c r="D101" t="s">
+      <c r="D113" t="s">
         <v>49</v>
       </c>
-      <c r="E101" t="s">
+      <c r="E113" t="s">
         <v>38</v>
       </c>
-      <c r="F101" s="1"/>
+      <c r="F113" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Code/ProjectStrategicLeadershipPlugin/数据库结构.xlsx
+++ b/Code/ProjectStrategicLeadershipPlugin/数据库结构.xlsx
@@ -1091,8 +1091,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G113"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1377,7 +1377,7 @@
         <v>174</v>
       </c>
       <c r="E15" t="s">
-        <v>75</v>
+        <v>158</v>
       </c>
       <c r="F15" s="1"/>
     </row>
